--- a/Entregaveis/1.RepositorioSemantico/Medicamentos/CargaMedicamentos/carga_traducao_formafarmaceutica_edqm.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Medicamentos/CargaMedicamentos/carga_traducao_formafarmaceutica_edqm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Medicamentos/CargaMedicamentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJET IPS\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Medicamentos\CargaMedicamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEF08DA-850C-7248-A0B4-51C729A543B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1FFDA-8701-43E0-B00F-53F9AD9FF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado da consulta" sheetId="1" r:id="rId1"/>
@@ -755,12 +755,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -775,8 +781,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1094,16 +1101,17 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="57.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1130,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15048000</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1149,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10228000</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1160,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10310000</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1195,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10105000</v>
+      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1206,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10106000</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1217,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10110000</v>
+      </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1228,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10111000</v>
+      </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1239,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10113000</v>
+      </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1218,15 +1250,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10117000</v>
+      </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1269,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10120000</v>
+      </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1242,7 +1280,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10121000</v>
+      </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1291,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10203000</v>
+      </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -1258,7 +1302,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10204000</v>
+      </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1266,7 +1313,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10205000</v>
+      </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1324,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10207000</v>
+      </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -1282,7 +1335,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15012000</v>
+      </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1346,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10211000</v>
+      </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -1298,7 +1357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1306,7 +1365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -1314,7 +1373,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12200</v>
+      </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1384,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10222000</v>
+      </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1395,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10226000</v>
+      </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1406,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10227000</v>
+      </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -1346,7 +1417,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10318000</v>
+      </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -1354,7 +1428,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10502000</v>
+      </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
@@ -1362,7 +1439,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10503000</v>
+      </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -1370,7 +1450,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10504000</v>
+      </c>
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1378,7 +1461,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10508000</v>
+      </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -1386,7 +1472,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10519000</v>
+      </c>
       <c r="B36" t="s">
         <v>66</v>
       </c>
@@ -1394,7 +1483,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10521000</v>
+      </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
@@ -1402,7 +1494,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10522000</v>
+      </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -1410,7 +1505,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10603000</v>
+      </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
@@ -1418,7 +1516,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10901000</v>
+      </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -1426,7 +1527,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10903000</v>
+      </c>
       <c r="B41" t="s">
         <v>76</v>
       </c>
@@ -1434,7 +1538,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10905000</v>
+      </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -1442,7 +1549,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10906000</v>
+      </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
@@ -1450,7 +1560,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10907000</v>
+      </c>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -1458,7 +1571,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10909000</v>
+      </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1582,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10912000</v>
+      </c>
       <c r="B46" t="s">
         <v>86</v>
       </c>
@@ -1474,7 +1593,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20050</v>
+      </c>
       <c r="B47" t="s">
         <v>88</v>
       </c>
@@ -1482,7 +1604,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11005000</v>
+      </c>
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -1490,7 +1615,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>11013000</v>
+      </c>
       <c r="B49" t="s">
         <v>91</v>
       </c>
@@ -1498,7 +1626,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>11109000</v>
+      </c>
       <c r="B50" t="s">
         <v>93</v>
       </c>
@@ -1506,7 +1637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>95</v>
       </c>
@@ -1514,7 +1645,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>11201000</v>
+      </c>
       <c r="B52" t="s">
         <v>97</v>
       </c>
@@ -1522,7 +1656,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>11202000</v>
+      </c>
       <c r="B53" t="s">
         <v>99</v>
       </c>
@@ -1530,7 +1667,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>11203000</v>
+      </c>
       <c r="B54" t="s">
         <v>101</v>
       </c>
@@ -1538,7 +1678,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>11205000</v>
+      </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -1546,7 +1689,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11206000</v>
+      </c>
       <c r="B56" t="s">
         <v>105</v>
       </c>
@@ -1554,7 +1700,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11210000</v>
+      </c>
       <c r="B57" t="s">
         <v>107</v>
       </c>
@@ -1562,7 +1711,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11212000</v>
+      </c>
       <c r="B58" t="s">
         <v>109</v>
       </c>
@@ -1570,7 +1722,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11301000</v>
+      </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -1578,7 +1733,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>113</v>
       </c>
@@ -1586,7 +1741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>115</v>
       </c>
@@ -1594,7 +1749,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>116</v>
       </c>
@@ -1602,7 +1757,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>15023000</v>
+      </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
@@ -1610,7 +1768,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>50081000</v>
+      </c>
       <c r="B64" t="s">
         <v>120</v>
       </c>
@@ -1618,7 +1779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>122</v>
       </c>
@@ -1626,7 +1787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>124</v>
       </c>
@@ -1634,7 +1795,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>126</v>
       </c>
@@ -1642,7 +1803,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>128</v>
       </c>
@@ -1650,7 +1811,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>130</v>
       </c>
@@ -1658,7 +1819,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>10323000</v>
+      </c>
       <c r="B70" t="s">
         <v>132</v>
       </c>
@@ -1666,7 +1830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>134</v>
       </c>
@@ -1674,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>136</v>
       </c>
@@ -1682,7 +1846,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>138</v>
       </c>
@@ -1690,7 +1854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>140</v>
       </c>
@@ -1698,7 +1862,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>142</v>
       </c>
@@ -1706,7 +1870,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>144</v>
       </c>
@@ -1714,7 +1878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>146</v>
       </c>
@@ -1722,7 +1886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>148</v>
       </c>
@@ -1730,7 +1894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>150</v>
       </c>
@@ -1738,7 +1902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>152</v>
       </c>
@@ -1746,7 +1910,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>154</v>
       </c>
@@ -1754,7 +1918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>156</v>
       </c>
@@ -1762,7 +1926,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10223000</v>
+      </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
@@ -1770,7 +1937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>160</v>
       </c>
@@ -1778,7 +1945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>161</v>
       </c>
@@ -1786,7 +1953,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>163</v>
       </c>
@@ -1794,7 +1961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>165</v>
       </c>
@@ -1802,7 +1969,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>167</v>
       </c>
@@ -1810,7 +1977,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>168</v>
       </c>
@@ -1818,7 +1985,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -1826,7 +1993,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>171</v>
       </c>
@@ -1834,7 +2001,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>172</v>
       </c>
@@ -1842,7 +2009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>173</v>
       </c>
@@ -1850,7 +2017,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>174</v>
       </c>
@@ -1858,7 +2025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>175</v>
       </c>
@@ -1866,7 +2033,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>177</v>
       </c>
@@ -1874,7 +2041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>178</v>
       </c>
@@ -1882,7 +2049,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>179</v>
       </c>
@@ -1890,7 +2057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>180</v>
       </c>
@@ -1898,7 +2065,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>181</v>
       </c>
@@ -1906,7 +2073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>182</v>
       </c>
@@ -1914,7 +2081,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>183</v>
       </c>
@@ -1922,7 +2089,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>184</v>
       </c>
@@ -1930,7 +2097,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>186</v>
       </c>
@@ -1938,7 +2105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>188</v>
       </c>
@@ -1946,7 +2113,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>50063000</v>
+      </c>
       <c r="B106" t="s">
         <v>189</v>
       </c>
@@ -1954,7 +2124,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>191</v>
       </c>
@@ -1962,7 +2132,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>193</v>
       </c>
@@ -1970,7 +2140,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>195</v>
       </c>
@@ -1978,7 +2148,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>11211000</v>
+      </c>
       <c r="B110" t="s">
         <v>196</v>
       </c>
@@ -1986,7 +2159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>198</v>
       </c>
@@ -1994,7 +2167,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>10902000</v>
+      </c>
       <c r="B112" t="s">
         <v>200</v>
       </c>
@@ -2002,7 +2178,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>202</v>
       </c>
@@ -2010,7 +2186,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>11207000</v>
+      </c>
       <c r="B114" t="s">
         <v>204</v>
       </c>
@@ -2018,7 +2197,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>50062750</v>
+      </c>
       <c r="B115" t="s">
         <v>206</v>
       </c>
@@ -2026,7 +2208,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>208</v>
       </c>
@@ -2034,7 +2216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>210</v>
       </c>
@@ -2042,7 +2224,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>10225000</v>
+      </c>
       <c r="B118" t="s">
         <v>212</v>
       </c>
@@ -2050,7 +2235,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>12120</v>
+      </c>
       <c r="B119" t="s">
         <v>214</v>
       </c>
@@ -2058,7 +2246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>216</v>
       </c>
@@ -2066,7 +2254,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>218</v>
       </c>
@@ -2074,7 +2262,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>10602000</v>
+      </c>
       <c r="B122" t="s">
         <v>219</v>
       </c>
@@ -2082,7 +2273,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>221</v>
       </c>
@@ -2090,7 +2281,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>223</v>
       </c>
@@ -2098,7 +2289,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>224</v>
       </c>
@@ -2106,7 +2297,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>225</v>
       </c>
@@ -2114,7 +2305,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>13076000</v>
+      </c>
       <c r="B127" t="s">
         <v>226</v>
       </c>
@@ -2122,7 +2316,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>228</v>
       </c>
@@ -2130,7 +2324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>229</v>
       </c>
@@ -2138,7 +2332,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>230</v>
       </c>
@@ -2146,7 +2340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>231</v>
       </c>
@@ -2154,7 +2348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>232</v>
       </c>
@@ -2162,7 +2356,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>233</v>
       </c>
@@ -2170,7 +2364,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>234</v>
       </c>
@@ -2178,7 +2372,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>235</v>
       </c>

--- a/Entregaveis/1.RepositorioSemantico/Medicamentos/CargaMedicamentos/carga_traducao_formafarmaceutica_edqm.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Medicamentos/CargaMedicamentos/carga_traducao_formafarmaceutica_edqm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJET IPS\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Medicamentos\CargaMedicamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1FFDA-8701-43E0-B00F-53F9AD9FF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322036FE-D2D1-4052-9E49-82ED514F5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resultado da consulta'!$B$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
